--- a/publisher-database.xlsx
+++ b/publisher-database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKEWL\Master\RESEARCH\Project\NAISS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DD8E3-81D7-4844-901D-7C0CC9826760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65E4CB-6C7B-448D-A893-4C2023FBBCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14472" yWindow="1440" windowWidth="23040" windowHeight="13896" tabRatio="342" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1212" windowWidth="23040" windowHeight="13896" tabRatio="342" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Springer</t>
   </si>
@@ -117,33 +117,15 @@
     <t>Providing a fast, remote security service using hashlists of approved web objects</t>
   </si>
   <si>
-    <t>Integration of BPCS Steganography and Visual Cryptography for Secure e-Pay</t>
-  </si>
-  <si>
-    <t>Online Secure Payment System Using Visual Cryptography and Steganography</t>
-  </si>
-  <si>
     <t>ArXiv</t>
   </si>
   <si>
     <t>Pixastic: steganography based anti-phihsing browser plug-in</t>
   </si>
   <si>
-    <t>Stronger Authentication in E-Commerce-How to protect even naive Users against Phishing, Pharming, and MITM attacks</t>
-  </si>
-  <si>
-    <t>Method and system to detect externally-referenced malicious data for access and/or publication via a computer system</t>
-  </si>
-  <si>
     <t>Fostering the uptake of secure multiparty computation in e-commerce</t>
   </si>
   <si>
-    <t>Obfuscation Techniques for Magecart Detection and Prevention</t>
-  </si>
-  <si>
-    <t>Security testing for monitoring web service using Cloud</t>
-  </si>
-  <si>
     <t>Sanitization of Images Containing Stegomalware via Machine Learning Approaches</t>
   </si>
   <si>
@@ -162,49 +144,19 @@
     <t>Method and apparatus for providing geographically authenticated electronic documents</t>
   </si>
   <si>
-    <t>Digital chain of trust method for electronic commerce</t>
-  </si>
-  <si>
-    <t>Securing web application code by static analysis and runtime protection</t>
-  </si>
-  <si>
-    <t>You are what you include: large-scale evaluation of remote javascript inclusions</t>
-  </si>
-  <si>
     <t>Trusted cloud computing with secure resources and data coloring</t>
   </si>
   <si>
     <t>Toward secure and dependable storage services in cloud computing</t>
   </si>
   <si>
-    <t>Secure and practical defense against code-injection attacks using software dynamic translation</t>
-  </si>
-  <si>
     <t>Wiley</t>
   </si>
   <si>
     <t>JS-SAN: defense mechanism for HTML5-based web applications against javascript code injection vulnerabilities</t>
   </si>
   <si>
-    <t>Cross-Site Scripting (XSS) attacks and defense mechanisms: classification and state-of-the-art</t>
-  </si>
-  <si>
-    <t>Elsevier</t>
-  </si>
-  <si>
-    <t>Securing web applications from injection and logic vulnerabilities: Approaches and challenges</t>
-  </si>
-  <si>
-    <t>Defending against injection attacks through context-sensitive string evaluation</t>
-  </si>
-  <si>
     <t>Cujo: efficient detection and prevention of drive-by-download attacks</t>
-  </si>
-  <si>
-    <t>Automatically hardening web applications using precise tainting</t>
-  </si>
-  <si>
-    <t>Blueprint: Robust prevention of cross-site scripting attacks for existing browsers</t>
   </si>
 </sst>
 </file>
@@ -530,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -547,7 +499,7 @@
     <col min="11" max="11" width="100.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,19 +534,16 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -629,19 +578,16 @@
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -655,13 +601,10 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -671,80 +614,39 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="C8" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="C9" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
